--- a/soccer/php/result/2016-09-14-25542.xlsx
+++ b/soccer/php/result/2016-09-14-25542.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\zzc\WTemplate\soccer\php\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\just4test\xampp\htdocs\sephiroth\Wtemplate\soccer\php\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8115"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -189,9 +189,6 @@
     <t>班菲尔德</t>
   </si>
   <si>
-    <t>蒙得维的亚漫步者</t>
-  </si>
-  <si>
     <t>萨莫拉FC</t>
   </si>
   <si>
@@ -259,17 +256,67 @@
   </si>
   <si>
     <t>维拉克鲁斯</t>
+  </si>
+  <si>
+    <r>
+      <t>蒙得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>维</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>漫步者</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,7 +324,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -285,7 +332,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -294,7 +341,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -303,7 +350,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,7 +359,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -320,7 +367,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -328,7 +375,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -336,7 +383,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -344,7 +391,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -353,7 +400,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -362,7 +409,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -370,7 +417,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -379,7 +426,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -387,7 +434,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -396,7 +443,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -405,7 +452,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -413,15 +460,23 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -863,48 +918,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -920,7 +975,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1186,7 +1241,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2149,16 +2204,16 @@
         <v>42627.260416666664</v>
       </c>
       <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>57</v>
       </c>
-      <c r="G21" t="s">
-        <v>58</v>
-      </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21">
         <v>1.62</v>
@@ -2190,22 +2245,22 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2">
         <v>42627.333333333336</v>
       </c>
       <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
       <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
         <v>60</v>
-      </c>
-      <c r="H22" t="s">
-        <v>61</v>
       </c>
       <c r="I22">
         <v>1.63</v>
@@ -2237,22 +2292,22 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2">
         <v>42627.333333333336</v>
       </c>
       <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
         <v>64</v>
-      </c>
-      <c r="G23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" t="s">
-        <v>65</v>
       </c>
       <c r="I23">
         <v>1.33</v>
@@ -2290,16 +2345,16 @@
         <v>42627.364583333336</v>
       </c>
       <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>67</v>
       </c>
-      <c r="G24" t="s">
-        <v>68</v>
-      </c>
       <c r="H24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24">
         <v>1.1000000000000001</v>
@@ -2331,22 +2386,22 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2">
         <v>42627.416666666664</v>
       </c>
       <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
         <v>69</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>70</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>71</v>
-      </c>
-      <c r="H25" t="s">
-        <v>72</v>
       </c>
       <c r="I25">
         <v>2.1</v>
@@ -2378,40 +2433,40 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2">
         <v>42627.416666666664</v>
       </c>
       <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
         <v>74</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>75</v>
       </c>
-      <c r="G26" t="s">
-        <v>76</v>
-      </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I26">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="J26">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K26">
-        <v>5.12</v>
+        <v>5.3</v>
       </c>
       <c r="L26">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="M26">
         <v>3.5</v>
       </c>
       <c r="N26">
-        <v>2.2000000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="O26">
         <v>-1</v>
@@ -2425,40 +2480,40 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2">
         <v>42627.4375</v>
       </c>
       <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
         <v>77</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
         <v>78</v>
       </c>
-      <c r="G27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s">
-        <v>79</v>
-      </c>
       <c r="I27">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="J27">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K27">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M27">
         <v>3.5</v>
       </c>
       <c r="N27">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="O27">
         <v>-1</v>
